--- a/classfiers/chain/svm/nearmiss/chain-svm-linear-nearmiss-results.xlsx
+++ b/classfiers/chain/svm/nearmiss/chain-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7611111111111112</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/nearmiss/chain-svm-linear-nearmiss-results.xlsx
+++ b/classfiers/chain/svm/nearmiss/chain-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="E2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.5</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9935897435897436</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.888888888888889</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.7457142857142858</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.691025641025641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.7016747181964573</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7611111111111112</v>
+        <v>0.9435897435897436</v>
       </c>
     </row>
   </sheetData>
